--- a/src/test/resources/TestData/loginData.xlsx
+++ b/src/test/resources/TestData/loginData.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D36D1D-079C-4A8B-A3FF-8EC6CA6713FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F8F850-A3A5-45E6-8EC7-9D54904F9909}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t xml:space="preserve">Email </t>
   </si>
@@ -32,13 +33,49 @@
   </si>
   <si>
     <t>Oculus@9088</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>invalidpass</t>
+  </si>
+  <si>
+    <t>invalid@gmail.com</t>
+  </si>
+  <si>
+    <t>invalidemail@gmail.com</t>
+  </si>
+  <si>
+    <t>invalidPass</t>
+  </si>
+  <si>
+    <t>palashsoni55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>Expected msg</t>
+  </si>
+  <si>
+    <t>Incorrect email address or password</t>
+  </si>
+  <si>
+    <t>Login failure</t>
+  </si>
+  <si>
+    <t>Invalid Email Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +87,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,9 +121,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -362,7 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -395,4 +441,123 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FEEC56-97D9-4B15-9CC8-32ADA389C529}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>123123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{7FDA80FA-D178-422B-A7F7-6FEC1CE76820}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{70070AD8-2061-414C-8EED-DFFFEE21A4DC}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{08C75EAE-B701-4814-B244-BBB0C2C09600}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{32E01065-2134-47ED-BC19-03A013564EC7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
 </file>